--- a/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69B5475A-912B-437B-972E-9EE42154063A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RELI" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>RELI</t>
   </si>
@@ -304,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -348,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,92 +654,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F7F26-5ADB-4F53-8091-7FE9564B79BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>42978</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42613</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42247</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41882</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41517</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>7300</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>1600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -782,26 +754,29 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>5700</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -809,21 +784,24 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,16 +813,17 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -861,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,18 +870,21 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,14 +900,17 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
@@ -934,17 +922,20 @@
         <v>300</v>
       </c>
       <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -953,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-3600</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,8 +1018,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1040,96 +1039,108 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,9 +1165,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1262,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1343,9 +1375,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1364,42 +1399,48 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>42978</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42613</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42247</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41882</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41517</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,17 +1561,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1530,15 +1582,18 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1563,36 +1618,42 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1617,14 +1678,17 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1632,129 +1696,144 @@
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1700</v>
       </c>
       <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>1700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+        <v>24800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1779,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1806,14 +1888,17 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1821,21 +1906,24 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,13 +2009,14 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -1934,24 +2030,27 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,18 +2066,21 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,18 +2096,21 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -2015,20 +2120,23 @@
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="I60" s="3">
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2048,36 +2156,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2156,18 +2276,21 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -2177,15 +2300,18 @@
       <c r="H66" s="3">
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+      <c r="I66" s="3">
+        <v>0</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2197,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2250,14 +2380,17 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>100</v>
@@ -2269,7 +2402,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2277,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2304,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2358,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2385,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2412,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2466,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>42978</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42613</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42247</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41882</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41517</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2539,13 +2702,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -2557,17 +2721,20 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2592,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2619,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2646,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2673,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2700,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,8 +2926,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2752,8 +2938,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -2761,15 +2947,18 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2794,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2821,20 +3013,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-1900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -2842,15 +3037,18 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2862,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2888,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2915,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2942,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2969,36 +3177,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3023,18 +3237,21 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -3044,13 +3261,16 @@
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
   <si>
     <t>RELI</t>
   </si>
@@ -665,9 +665,8 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -689,19 +688,19 @@
         <v>44196</v>
       </c>
       <c r="E7" s="2">
-        <v>42978</v>
+        <v>43830</v>
       </c>
       <c r="F7" s="2">
-        <v>42613</v>
-      </c>
-      <c r="G7" s="2">
-        <v>42247</v>
-      </c>
-      <c r="H7" s="2">
-        <v>41882</v>
-      </c>
-      <c r="I7" s="2">
-        <v>41517</v>
+        <v>43465</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -719,19 +718,19 @@
         <v>7300</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -748,20 +747,20 @@
       <c r="D9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -778,20 +777,20 @@
       <c r="D10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>600</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -822,8 +821,8 @@
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -879,26 +878,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -913,19 +912,19 @@
         <v>1300</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F15" s="3">
-        <v>300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -954,19 +953,19 @@
         <v>10900</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="F17" s="3">
-        <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -984,19 +983,19 @@
         <v>-3600</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-3100</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1024,23 +1023,23 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1600</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1055,22 +1054,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1300</v>
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
-        <v>-2200</v>
+        <v>-2800</v>
       </c>
       <c r="F21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
+        <v>-1100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1084,11 +1083,11 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1096,11 +1095,11 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1114,23 +1113,23 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-3700</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="F23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
+        <v>-1100</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1204,23 +1203,23 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-3700</v>
       </c>
       <c r="E26" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="F26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
+        <v>-1100</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1234,23 +1233,23 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="F27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
+        <v>-1100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1384,23 +1383,23 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1414,23 +1413,23 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="F33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
+        <v>-1100</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1474,23 +1473,23 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="F35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
+        <v>-1100</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1513,19 +1512,19 @@
         <v>44196</v>
       </c>
       <c r="E38" s="2">
-        <v>42978</v>
+        <v>43830</v>
       </c>
       <c r="F38" s="2">
-        <v>42613</v>
-      </c>
-      <c r="G38" s="2">
-        <v>42247</v>
-      </c>
-      <c r="H38" s="2">
-        <v>41882</v>
-      </c>
-      <c r="I38" s="2">
-        <v>41517</v>
+        <v>43465</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1571,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1631,19 +1630,19 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1689,20 @@
       <c r="D45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1721,19 +1720,19 @@
         <v>800</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
+      <c r="G46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1778,22 +1777,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1700</v>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1808,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1900,20 +1899,20 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1961,19 +1960,19 @@
         <v>17900</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>17000</v>
       </c>
       <c r="F54" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2000</v>
+        <v>2500</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2046,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2076,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2109,19 +2108,19 @@
         <v>6900</v>
       </c>
       <c r="E60" s="3">
-        <v>1800</v>
+        <v>4700</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2139,10 +2138,10 @@
         <v>8000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2168,11 +2167,11 @@
       <c r="D62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2289,19 +2288,19 @@
         <v>17800</v>
       </c>
       <c r="E66" s="3">
-        <v>1800</v>
+        <v>16400</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2393,16 +2392,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2453,19 +2452,19 @@
         <v>-12500</v>
       </c>
       <c r="E72" s="3">
-        <v>-4600</v>
+        <v>-8800</v>
       </c>
       <c r="F72" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-200</v>
+        <v>-5300</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2573,19 +2572,19 @@
         <v>100</v>
       </c>
       <c r="E76" s="3">
-        <v>-1700</v>
+        <v>600</v>
       </c>
       <c r="F76" s="3">
-        <v>900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2000</v>
+        <v>-300</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2638,19 +2637,19 @@
         <v>44196</v>
       </c>
       <c r="E80" s="2">
-        <v>42978</v>
+        <v>43830</v>
       </c>
       <c r="F80" s="2">
-        <v>42613</v>
-      </c>
-      <c r="G80" s="2">
-        <v>42247</v>
-      </c>
-      <c r="H80" s="2">
-        <v>41882</v>
-      </c>
-      <c r="I80" s="2">
-        <v>41517</v>
+        <v>43465</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2664,23 +2663,23 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-2600</v>
+        <v>-3500</v>
       </c>
       <c r="F81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
+        <v>-1100</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2712,19 +2711,19 @@
         <v>1300</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2892,19 +2891,19 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2932,23 +2931,23 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3025,20 +3024,20 @@
       <c r="D94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="E94" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3073,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -3187,22 +3186,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>12600</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
+        <v>1300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3250,19 +3249,19 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
@@ -879,25 +879,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="E17" s="3">
         <v>7600</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3600</v>
+        <v>-3100</v>
       </c>
       <c r="E18" s="3">
         <v>-3100</v>
@@ -1024,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
@@ -1054,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="E21" s="3">
         <v>-2800</v>
@@ -1084,25 +1084,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
@@ -1627,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1717,7 +1717,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
@@ -1777,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
@@ -1807,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="E49" s="3">
         <v>15200</v>
@@ -1957,7 +1957,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="E54" s="3">
         <v>17000</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E58" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
         <v>1100</v>
@@ -2075,10 +2075,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2449,7 +2449,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="E72" s="3">
         <v>-8800</v>
@@ -2569,7 +2569,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E76" s="3">
         <v>600</v>

--- a/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>RELI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,24 +708,27 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E8" s="3">
         <v>7300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,24 +741,27 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,24 +774,27 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,18 +888,21 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,23 +921,26 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,23 +969,24 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,24 +999,27 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E18" s="3">
         <v>-3100</v>
       </c>
       <c r="F18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,24 +1080,27 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1104,27 +1143,30 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,24 +1245,27 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,24 +1278,27 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,24 +1476,27 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,24 +1542,27 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,13 +1646,14 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1575,8 +1661,8 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,9 +1676,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,9 +1742,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,24 +1775,27 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,24 +1808,27 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,17 +1841,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>1400</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>1400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1767,27 +1871,30 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,24 +1907,27 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E49" s="3">
         <v>14700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,12 +1937,15 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,9 +2006,12 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1905,8 +2024,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,24 +2072,27 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E54" s="3">
         <v>18000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,24 +2168,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,24 +2201,27 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,24 +2234,27 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,24 +2267,27 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E61" s="3">
         <v>8000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2900</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2185,12 +2330,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,24 +2432,27 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17800</v>
+        <v>53700</v>
       </c>
       <c r="E66" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,24 +2612,27 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,24 +2744,27 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>200</v>
+        <v>-26100</v>
       </c>
       <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,24 +2848,27 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,23 +3145,24 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,24 +3241,27 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3072,11 +3305,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,24 +3421,27 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,9 +3454,12 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3239,24 +3487,27 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/RELI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>RELI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,27 +711,30 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E8" s="3">
         <v>9700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -744,27 +747,30 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,27 +783,30 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E10" s="3">
         <v>7300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,21 +907,24 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,26 +943,29 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,26 +995,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E17" s="3">
         <v>12600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1002,27 +1028,30 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-3100</v>
       </c>
       <c r="F18" s="3">
         <v>-3100</v>
       </c>
       <c r="G18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,27 +1116,30 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1116,9 +1152,12 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1146,30 +1185,33 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,9 +1224,12 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,27 +1296,30 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1281,27 +1332,30 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E32" s="3">
         <v>18200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,27 +1548,30 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,27 +1620,30 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,27 +1909,30 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
         <v>8000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,20 +1945,23 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
         <v>1400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>1400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1874,30 +1978,33 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1910,27 +2017,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E49" s="3">
         <v>17100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,12 +2050,15 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,9 +2125,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2027,8 +2146,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,27 +2197,30 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E54" s="3">
         <v>27700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,27 +2301,30 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,27 +2337,30 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>43500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,27 +2373,30 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>45000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,27 +2409,30 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2333,12 +2478,15 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,27 +2589,30 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E66" s="3">
         <v>53700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,27 +2785,30 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,27 +2929,30 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-26100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,27 +3042,30 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,8 +3365,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3155,17 +3375,17 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,27 +3470,30 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3308,11 +3541,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,27 +3666,30 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E100" s="3">
         <v>8600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,9 +3702,12 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3490,27 +3738,30 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>4100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
